--- a/Cost/Mapfre/HEXACOPTER_Julio's additions.xlsx
+++ b/Cost/Mapfre/HEXACOPTER_Julio's additions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -331,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,7 +366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,13 +577,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="39.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
@@ -1067,7 +1067,7 @@
     <hyperlink ref="J26" r:id="rId7"/>
     <hyperlink ref="J27" r:id="rId8"/>
     <hyperlink ref="J28" r:id="rId9"/>
-    <hyperlink ref="J22"/>
+    <hyperlink ref="J22" display="http://www.northerntool.com/shop/tools/product_200585434_200585434?cm_mmc=Google-pla-_-Generators-_-Inverter%20Generators-_-16673&amp;ci_src=17588969&amp;ci_sku=16673&amp;ci_src=17588969&amp;ci_sku=16673&amp;gclid=CjwKEAjwotmoBRCc6LWd2ZnkuBYSJACyt2quXntDJycadItv9sbwndePvsBdx"/>
     <hyperlink ref="J21" r:id="rId10"/>
     <hyperlink ref="K21" r:id="rId11"/>
     <hyperlink ref="L21" r:id="rId12"/>
